--- a/list.xlsx
+++ b/list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swag\source\repos\Biblia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\СмердоваЕВ\source\repos\Biblia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6E7358-8AFC-4D24-BE61-924A1761A202}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966E525C-15FD-42A4-97F3-9BDF683F5E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readers" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Библиотекарь</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>Белые рамы</t>
+  </si>
+  <si>
+    <t>чмо</t>
+  </si>
+  <si>
+    <t>ее</t>
+  </si>
+  <si>
+    <t>идиот</t>
   </si>
 </sst>
 </file>
@@ -416,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,6 +551,23 @@
         <v>17</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -553,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB056112-B5FF-416B-924A-2D3EAE41176B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
